--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H2">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>362.6476965192959</v>
+        <v>2.790321903858667</v>
       </c>
       <c r="R2">
-        <v>3263.829268673664</v>
+        <v>25.112897134728</v>
       </c>
       <c r="S2">
-        <v>0.04049616176571932</v>
+        <v>0.0005826880316044435</v>
       </c>
       <c r="T2">
-        <v>0.04049616176571931</v>
+        <v>0.0005826880316044436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H3">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>364.3466197879635</v>
+        <v>227.4638014719062</v>
       </c>
       <c r="R3">
-        <v>3279.119578091672</v>
+        <v>2047.174213247156</v>
       </c>
       <c r="S3">
-        <v>0.04068587721731558</v>
+        <v>0.04750005171720226</v>
       </c>
       <c r="T3">
-        <v>0.04068587721731558</v>
+        <v>0.04750005171720228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H4">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I4">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J4">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>17.49584516913755</v>
+        <v>17.49930523248233</v>
       </c>
       <c r="R4">
-        <v>157.462606522238</v>
+        <v>157.493747092341</v>
       </c>
       <c r="S4">
-        <v>0.001953726944904706</v>
+        <v>0.003654286520225424</v>
       </c>
       <c r="T4">
-        <v>0.001953726944904706</v>
+        <v>0.003654286520225426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>3699.89441606016</v>
+        <v>45.59961412517333</v>
       </c>
       <c r="R5">
-        <v>33299.04974454144</v>
+        <v>410.39652712656</v>
       </c>
       <c r="S5">
-        <v>0.4131600013647999</v>
+        <v>0.009522324058660025</v>
       </c>
       <c r="T5">
-        <v>0.4131600013647998</v>
+        <v>0.009522324058660029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I6">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J6">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>3717.227593067458</v>
@@ -818,10 +818,10 @@
         <v>33455.04833760712</v>
       </c>
       <c r="S6">
-        <v>0.4150955634729794</v>
+        <v>0.7762487999090409</v>
       </c>
       <c r="T6">
-        <v>0.4150955634729794</v>
+        <v>0.7762487999090412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1237.41626</v>
       </c>
       <c r="I7">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J7">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>178.5004577909978</v>
+        <v>285.9747346556466</v>
       </c>
       <c r="R7">
-        <v>1606.50412011898</v>
+        <v>2573.77261190082</v>
       </c>
       <c r="S7">
-        <v>0.01993279836971079</v>
+        <v>0.05971857762886343</v>
       </c>
       <c r="T7">
-        <v>0.01993279836971079</v>
+        <v>0.05971857762886345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H8">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I8">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J8">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>299.571984422208</v>
+        <v>5.542848769016</v>
       </c>
       <c r="R8">
-        <v>2696.147859799872</v>
+        <v>49.88563892114399</v>
       </c>
       <c r="S8">
-        <v>0.03345261987895677</v>
+        <v>0.001157483526984002</v>
       </c>
       <c r="T8">
-        <v>0.03345261987895676</v>
+        <v>0.001157483526984003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H9">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I9">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J9">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>300.975412101084</v>
+        <v>451.8465952765986</v>
       </c>
       <c r="R9">
-        <v>2708.778708909756</v>
+        <v>4066.619357489387</v>
       </c>
       <c r="S9">
-        <v>0.03360933791372091</v>
+        <v>0.09435671304619006</v>
       </c>
       <c r="T9">
-        <v>0.03360933791372091</v>
+        <v>0.09435671304619006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H10">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I10">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J10">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>14.452773605811</v>
+        <v>34.76158156962699</v>
       </c>
       <c r="R10">
-        <v>130.074962452299</v>
+        <v>312.854234126643</v>
       </c>
       <c r="S10">
-        <v>0.001613913071892623</v>
+        <v>0.007259075561229299</v>
       </c>
       <c r="T10">
-        <v>0.001613913071892623</v>
+        <v>0.0072590755612293</v>
       </c>
     </row>
   </sheetData>
